--- a/PM/640_Netzplan/Netzplan_4.xlsx
+++ b/PM/640_Netzplan/Netzplan_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz\Documents\GitHub\labor_mod_sim\PM\640_Netzplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\Documents\labor_mod_sim\PM\640_Netzplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61E8184-FEC9-4D86-BF88-29DE35A1C3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094B628B-7D76-4E13-AA73-A80C3845B74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1102,12 +1102,42 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1120,18 +1150,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1141,28 +1159,10 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Ausgabe" xfId="1" builtinId="21"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1178,7 +1178,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1479,41 +1479,41 @@
   </sheetPr>
   <dimension ref="A1:AY61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF20" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AQ40" sqref="AQ40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11.3828125" style="2"/>
-    <col min="9" max="9" width="11.3828125" style="2"/>
-    <col min="13" max="13" width="11.3828125" style="2"/>
-    <col min="17" max="17" width="11.3828125" style="2" customWidth="1"/>
-    <col min="18" max="20" width="11.3828125" customWidth="1"/>
-    <col min="21" max="21" width="11.3828125" style="2"/>
+    <col min="5" max="5" width="11.33203125" style="2"/>
+    <col min="9" max="9" width="11.33203125" style="2"/>
+    <col min="13" max="13" width="11.33203125" style="2"/>
+    <col min="17" max="17" width="11.33203125" style="2" customWidth="1"/>
+    <col min="18" max="20" width="11.33203125" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="64" t="s">
+    <row r="1" spans="1:51" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-    </row>
-    <row r="2" spans="1:51" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+    </row>
+    <row r="2" spans="1:51" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5" s="58" t="s">
         <v>117</v>
       </c>
@@ -1565,29 +1565,29 @@
       <c r="U5" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="X5" s="65" t="s">
+      <c r="X5" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="65" t="s">
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="AA5" s="65"/>
-      <c r="AD5" s="66" t="s">
+      <c r="AA5" s="70"/>
+      <c r="AD5" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="68"/>
-      <c r="AH5" s="68"/>
-      <c r="AI5" s="68"/>
-      <c r="AJ5" s="68"/>
-      <c r="AK5" s="68"/>
-      <c r="AL5" s="68"/>
-      <c r="AM5" s="68"/>
-      <c r="AN5" s="68"/>
-      <c r="AO5" s="68"/>
-      <c r="AP5" s="69"/>
+      <c r="AE5" s="77"/>
+      <c r="AF5" s="77"/>
+      <c r="AG5" s="78"/>
+      <c r="AH5" s="78"/>
+      <c r="AI5" s="78"/>
+      <c r="AJ5" s="78"/>
+      <c r="AK5" s="78"/>
+      <c r="AL5" s="78"/>
+      <c r="AM5" s="78"/>
+      <c r="AN5" s="78"/>
+      <c r="AO5" s="78"/>
+      <c r="AP5" s="79"/>
       <c r="AT5" s="16"/>
       <c r="AU5" s="16"/>
       <c r="AV5" s="16"/>
@@ -1595,58 +1595,58 @@
       <c r="AX5" s="16"/>
       <c r="AY5" s="16"/>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="73"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="F6" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="73"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="66"/>
       <c r="I6" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="71" t="s">
+      <c r="J6" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="72"/>
-      <c r="L6" s="73"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="66"/>
       <c r="M6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="71" t="s">
+      <c r="N6" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="72"/>
-      <c r="P6" s="73"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="66"/>
       <c r="Q6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="71" t="s">
+      <c r="R6" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="S6" s="72"/>
-      <c r="T6" s="73"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="66"/>
       <c r="U6" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="X6" s="70" t="s">
+      <c r="X6" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="65" t="s">
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="AA6" s="65"/>
+      <c r="AA6" s="70"/>
       <c r="AD6" s="46"/>
       <c r="AE6" s="27"/>
       <c r="AF6" s="28"/>
@@ -1664,7 +1664,7 @@
       <c r="AR6" s="20"/>
       <c r="AS6" s="20"/>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>44838</v>
       </c>
@@ -1731,12 +1731,12 @@
       <c r="U7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X7" s="70"/>
-      <c r="Y7" s="70"/>
-      <c r="Z7" s="65" t="s">
+      <c r="X7" s="69"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="AA7" s="65"/>
+      <c r="AA7" s="70"/>
       <c r="AD7" s="50" t="s">
         <v>107</v>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="AP7" s="31"/>
       <c r="AS7" s="17"/>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <f>D8</f>
         <v>44844</v>
@@ -1831,30 +1831,30 @@
       <c r="U8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X8" s="70"/>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="65" t="s">
+      <c r="X8" s="69"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="AA8" s="65"/>
+      <c r="AA8" s="70"/>
       <c r="AD8" s="53"/>
       <c r="AE8" s="54"/>
       <c r="AF8" s="55"/>
       <c r="AG8" s="38"/>
       <c r="AH8" s="36"/>
       <c r="AI8" s="29"/>
-      <c r="AJ8" s="74" t="s">
+      <c r="AJ8" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="AK8" s="75"/>
-      <c r="AL8" s="76"/>
+      <c r="AK8" s="81"/>
+      <c r="AL8" s="82"/>
       <c r="AM8" s="29"/>
       <c r="AN8" s="29"/>
       <c r="AO8" s="29"/>
       <c r="AP8" s="31"/>
       <c r="AS8" s="17"/>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
       <c r="I9" s="11" t="s">
         <v>16</v>
       </c>
@@ -1867,14 +1867,14 @@
       <c r="U9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="81" t="s">
+      <c r="X9" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="Y9" s="81"/>
-      <c r="Z9" s="80">
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="68">
         <v>4</v>
       </c>
-      <c r="AA9" s="80"/>
+      <c r="AA9" s="68"/>
       <c r="AD9" s="50"/>
       <c r="AE9" s="51"/>
       <c r="AF9" s="52"/>
@@ -1901,7 +1901,7 @@
       <c r="AS9" s="17"/>
       <c r="AW9" s="13"/>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="I10" s="11" t="s">
         <v>16</v>
       </c>
@@ -1914,10 +1914,10 @@
       <c r="U10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X10" s="81"/>
-      <c r="Y10" s="81"/>
-      <c r="Z10" s="80"/>
-      <c r="AA10" s="80"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="68"/>
       <c r="AD10" s="50"/>
       <c r="AE10" s="60" t="s">
         <v>109</v>
@@ -1945,7 +1945,7 @@
       <c r="AP10" s="31"/>
       <c r="AS10" s="17"/>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="I11" s="11" t="s">
         <v>16</v>
       </c>
@@ -1968,14 +1968,14 @@
       <c r="U11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X11" s="81" t="s">
+      <c r="X11" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="Y11" s="81"/>
-      <c r="Z11" s="80">
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="68">
         <v>12</v>
       </c>
-      <c r="AA11" s="80"/>
+      <c r="AA11" s="68"/>
       <c r="AD11" s="32"/>
       <c r="AE11" s="40"/>
       <c r="AF11" s="56"/>
@@ -1991,28 +1991,28 @@
       <c r="AP11" s="31"/>
       <c r="AS11" s="17"/>
     </row>
-    <row r="12" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I12" s="11" t="s">
         <v>16</v>
       </c>
       <c r="M12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="71" t="s">
+      <c r="N12" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="O12" s="72"/>
-      <c r="P12" s="73"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="66"/>
       <c r="Q12" s="20" t="s">
         <v>67</v>
       </c>
       <c r="U12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X12" s="81"/>
-      <c r="Y12" s="81"/>
-      <c r="Z12" s="80"/>
-      <c r="AA12" s="80"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
       <c r="AD12" s="42"/>
       <c r="AE12" s="51"/>
       <c r="AF12" s="44"/>
@@ -2030,7 +2030,7 @@
       <c r="AP12" s="31"/>
       <c r="AS12" s="19"/>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="I13" s="11" t="s">
         <v>16</v>
       </c>
@@ -2052,14 +2052,14 @@
       <c r="U13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X13" s="81" t="s">
+      <c r="X13" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="Y13" s="81"/>
-      <c r="Z13" s="80" t="s">
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="AA13" s="80"/>
+      <c r="AA13" s="68"/>
       <c r="AD13" s="57" t="s">
         <v>112</v>
       </c>
@@ -2081,7 +2081,7 @@
       <c r="AP13" s="31"/>
       <c r="AS13" s="11"/>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="I14" s="11" t="s">
         <v>16</v>
       </c>
@@ -2104,10 +2104,10 @@
       <c r="U14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X14" s="81"/>
-      <c r="Y14" s="81"/>
-      <c r="Z14" s="80"/>
-      <c r="AA14" s="80"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
       <c r="AD14" s="43"/>
       <c r="AE14" s="33"/>
       <c r="AF14" s="45"/>
@@ -2123,7 +2123,7 @@
       <c r="AP14" s="34"/>
       <c r="AS14" s="11"/>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
       <c r="I15" s="11" t="s">
         <v>16</v>
       </c>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="AS15" s="11"/>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
       <c r="I16" s="11" t="s">
         <v>16</v>
       </c>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="AS16" s="11"/>
     </row>
-    <row r="17" spans="7:45" x14ac:dyDescent="0.4">
+    <row r="17" spans="7:45" x14ac:dyDescent="0.3">
       <c r="I17" s="11" t="s">
         <v>16</v>
       </c>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="AS17" s="11"/>
     </row>
-    <row r="18" spans="7:45" x14ac:dyDescent="0.4">
+    <row r="18" spans="7:45" x14ac:dyDescent="0.3">
       <c r="G18" s="4"/>
       <c r="I18" s="11" t="s">
         <v>16</v>
@@ -2185,16 +2185,16 @@
       </c>
       <c r="AS18" s="15"/>
     </row>
-    <row r="19" spans="7:45" x14ac:dyDescent="0.4">
+    <row r="19" spans="7:45" x14ac:dyDescent="0.3">
       <c r="G19" s="4"/>
       <c r="I19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="71" t="s">
+      <c r="J19" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="72"/>
-      <c r="L19" s="73"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="66"/>
       <c r="M19" s="20" t="s">
         <v>80</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="7:45" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:45" x14ac:dyDescent="0.3">
       <c r="I20" s="11" t="s">
         <v>16</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="7:45" x14ac:dyDescent="0.4">
+    <row r="21" spans="7:45" x14ac:dyDescent="0.3">
       <c r="I21" s="11" t="s">
         <v>16</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="7:45" x14ac:dyDescent="0.4">
+    <row r="22" spans="7:45" x14ac:dyDescent="0.3">
       <c r="I22" s="11" t="s">
         <v>16</v>
       </c>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="7:45" x14ac:dyDescent="0.4">
+    <row r="23" spans="7:45" x14ac:dyDescent="0.3">
       <c r="I23" s="11" t="s">
         <v>16</v>
       </c>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="7:45" x14ac:dyDescent="0.4">
+    <row r="24" spans="7:45" x14ac:dyDescent="0.3">
       <c r="I24" s="11" t="s">
         <v>16</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="7:45" x14ac:dyDescent="0.4">
+    <row r="25" spans="7:45" x14ac:dyDescent="0.3">
       <c r="I25" s="11" t="s">
         <v>16</v>
       </c>
@@ -2320,15 +2320,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="7:45" x14ac:dyDescent="0.4">
+    <row r="26" spans="7:45" x14ac:dyDescent="0.3">
       <c r="I26" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="71" t="s">
+      <c r="J26" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="K26" s="72"/>
-      <c r="L26" s="73"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="66"/>
       <c r="M26" s="20" t="s">
         <v>80</v>
       </c>
@@ -2347,10 +2347,10 @@
       <c r="U26" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X26" s="70" t="s">
+      <c r="X26" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="Y26" s="70"/>
+      <c r="Y26" s="69"/>
       <c r="Z26" s="21" t="s">
         <v>91</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>44838</v>
       </c>
     </row>
-    <row r="27" spans="7:45" x14ac:dyDescent="0.4">
+    <row r="27" spans="7:45" x14ac:dyDescent="0.3">
       <c r="I27" s="11" t="s">
         <v>16</v>
       </c>
@@ -2377,8 +2377,8 @@
       <c r="U27" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X27" s="70"/>
-      <c r="Y27" s="70"/>
+      <c r="X27" s="69"/>
+      <c r="Y27" s="69"/>
       <c r="Z27" s="21" t="s">
         <v>92</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>44874</v>
       </c>
     </row>
-    <row r="28" spans="7:45" x14ac:dyDescent="0.4">
+    <row r="28" spans="7:45" x14ac:dyDescent="0.3">
       <c r="I28" s="11" t="s">
         <v>16</v>
       </c>
@@ -2406,8 +2406,8 @@
       <c r="U28" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X28" s="70"/>
-      <c r="Y28" s="70"/>
+      <c r="X28" s="69"/>
+      <c r="Y28" s="69"/>
       <c r="Z28" s="22" t="s">
         <v>93</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="29" spans="7:45" x14ac:dyDescent="0.4">
+    <row r="29" spans="7:45" x14ac:dyDescent="0.3">
       <c r="I29" s="11" t="s">
         <v>16</v>
       </c>
@@ -2424,16 +2424,16 @@
       <c r="U29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X29" s="65" t="s">
+      <c r="X29" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="Y29" s="65"/>
-      <c r="Z29" s="82">
+      <c r="Y29" s="70"/>
+      <c r="Z29" s="71">
         <v>44844</v>
       </c>
-      <c r="AA29" s="65"/>
-    </row>
-    <row r="30" spans="7:45" x14ac:dyDescent="0.4">
+      <c r="AA29" s="70"/>
+    </row>
+    <row r="30" spans="7:45" x14ac:dyDescent="0.3">
       <c r="I30" s="11" t="s">
         <v>16</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="7:45" x14ac:dyDescent="0.4">
+    <row r="31" spans="7:45" x14ac:dyDescent="0.3">
       <c r="I31" s="11" t="s">
         <v>16</v>
       </c>
@@ -2460,18 +2460,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="7:45" x14ac:dyDescent="0.4">
+    <row r="32" spans="7:45" x14ac:dyDescent="0.3">
       <c r="H32" s="19" t="s">
         <v>81</v>
       </c>
       <c r="I32" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J32" s="71" t="s">
+      <c r="J32" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="K32" s="72"/>
-      <c r="L32" s="73"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="66"/>
       <c r="M32" s="20" t="s">
         <v>80</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="8:49" x14ac:dyDescent="0.4">
+    <row r="33" spans="8:49" x14ac:dyDescent="0.3">
       <c r="H33" s="17" t="s">
         <v>16</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="8:49" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:49" x14ac:dyDescent="0.3">
       <c r="H34" s="17" t="s">
         <v>16</v>
       </c>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="Z34" s="20"/>
     </row>
-    <row r="35" spans="8:49" x14ac:dyDescent="0.4">
+    <row r="35" spans="8:49" x14ac:dyDescent="0.3">
       <c r="H35" s="17" t="s">
         <v>16</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="8:49" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:49" x14ac:dyDescent="0.3">
       <c r="H36" s="17" t="s">
         <v>16</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="8:49" x14ac:dyDescent="0.4">
+    <row r="37" spans="8:49" x14ac:dyDescent="0.3">
       <c r="H37" s="17" t="s">
         <v>16</v>
       </c>
@@ -2679,42 +2679,42 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="8:49" x14ac:dyDescent="0.4">
+    <row r="38" spans="8:49" x14ac:dyDescent="0.3">
       <c r="H38" s="17" t="s">
         <v>16</v>
       </c>
       <c r="I38" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J38" s="71" t="s">
+      <c r="J38" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="72"/>
-      <c r="L38" s="73"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="66"/>
       <c r="M38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="71" t="s">
+      <c r="N38" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="O38" s="72"/>
-      <c r="P38" s="73"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="66"/>
       <c r="Q38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R38" s="77" t="s">
+      <c r="R38" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="S38" s="78"/>
-      <c r="T38" s="79"/>
+      <c r="S38" s="73"/>
+      <c r="T38" s="74"/>
       <c r="U38" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="V38" s="77" t="s">
+      <c r="V38" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="W38" s="78"/>
-      <c r="X38" s="79"/>
+      <c r="W38" s="73"/>
+      <c r="X38" s="74"/>
       <c r="Y38" t="s">
         <v>112</v>
       </c>
@@ -2754,32 +2754,32 @@
       <c r="AK38" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="AL38" s="71" t="s">
+      <c r="AL38" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="AM38" s="72"/>
-      <c r="AN38" s="73"/>
+      <c r="AM38" s="65"/>
+      <c r="AN38" s="66"/>
       <c r="AO38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AP38" s="71" t="s">
+      <c r="AP38" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="AQ38" s="72"/>
-      <c r="AR38" s="73"/>
+      <c r="AQ38" s="65"/>
+      <c r="AR38" s="66"/>
       <c r="AS38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AT38" s="71" t="s">
+      <c r="AT38" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="AU38" s="72"/>
-      <c r="AV38" s="73"/>
+      <c r="AU38" s="65"/>
+      <c r="AV38" s="66"/>
       <c r="AW38" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="8:49" x14ac:dyDescent="0.4">
+    <row r="39" spans="8:49" x14ac:dyDescent="0.3">
       <c r="H39" s="17" t="s">
         <v>16</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="8:49" x14ac:dyDescent="0.4">
+    <row r="40" spans="8:49" x14ac:dyDescent="0.3">
       <c r="H40" s="17" t="s">
         <v>16</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="8:49" x14ac:dyDescent="0.4">
+    <row r="41" spans="8:49" x14ac:dyDescent="0.3">
       <c r="H41" s="17" t="s">
         <v>16</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="42" spans="8:49" x14ac:dyDescent="0.4">
+    <row r="42" spans="8:49" x14ac:dyDescent="0.3">
       <c r="H42" s="17" t="s">
         <v>16</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="8:49" x14ac:dyDescent="0.4">
+    <row r="43" spans="8:49" x14ac:dyDescent="0.3">
       <c r="H43" s="17" t="s">
         <v>16</v>
       </c>
@@ -3093,18 +3093,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="8:49" x14ac:dyDescent="0.4">
+    <row r="44" spans="8:49" x14ac:dyDescent="0.3">
       <c r="H44" s="17" t="s">
         <v>16</v>
       </c>
       <c r="I44" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J44" s="71" t="s">
+      <c r="J44" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="K44" s="72"/>
-      <c r="L44" s="73"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="66"/>
       <c r="M44" s="20" t="s">
         <v>67</v>
       </c>
@@ -3114,35 +3114,35 @@
       <c r="U44" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="V44" s="71" t="s">
+      <c r="V44" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="W44" s="72"/>
-      <c r="X44" s="73"/>
+      <c r="W44" s="65"/>
+      <c r="X44" s="66"/>
       <c r="Y44" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Z44" s="71" t="s">
+      <c r="Z44" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="AA44" s="72"/>
-      <c r="AB44" s="73"/>
+      <c r="AA44" s="65"/>
+      <c r="AB44" s="66"/>
       <c r="AC44" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="AD44" s="71" t="s">
+      <c r="AD44" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="AE44" s="72"/>
-      <c r="AF44" s="73"/>
+      <c r="AE44" s="65"/>
+      <c r="AF44" s="66"/>
       <c r="AG44" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AH44" s="71" t="s">
+      <c r="AH44" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="AI44" s="72"/>
-      <c r="AJ44" s="73"/>
+      <c r="AI44" s="65"/>
+      <c r="AJ44" s="66"/>
       <c r="AK44" s="15" t="s">
         <v>67</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="8:49" x14ac:dyDescent="0.4">
+    <row r="45" spans="8:49" x14ac:dyDescent="0.3">
       <c r="H45" s="17" t="s">
         <v>16</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="8:49" x14ac:dyDescent="0.4">
+    <row r="46" spans="8:49" x14ac:dyDescent="0.3">
       <c r="H46" s="17" t="s">
         <v>16</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="8:49" x14ac:dyDescent="0.4">
+    <row r="47" spans="8:49" x14ac:dyDescent="0.3">
       <c r="H47" s="17" t="s">
         <v>16</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="8:49" x14ac:dyDescent="0.4">
+    <row r="48" spans="8:49" x14ac:dyDescent="0.3">
       <c r="H48" s="17" t="s">
         <v>16</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="8:38" x14ac:dyDescent="0.4">
+    <row r="49" spans="8:38" x14ac:dyDescent="0.3">
       <c r="H49" s="17" t="s">
         <v>16</v>
       </c>
@@ -3368,18 +3368,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="8:38" x14ac:dyDescent="0.4">
+    <row r="50" spans="8:38" x14ac:dyDescent="0.3">
       <c r="H50" s="17" t="s">
         <v>16</v>
       </c>
       <c r="I50" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="71" t="s">
+      <c r="J50" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="K50" s="72"/>
-      <c r="L50" s="73"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="66"/>
       <c r="M50" s="20" t="s">
         <v>80</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="8:38" x14ac:dyDescent="0.4">
+    <row r="51" spans="8:38" x14ac:dyDescent="0.3">
       <c r="H51" s="17" t="s">
         <v>16</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="8:38" x14ac:dyDescent="0.4">
+    <row r="52" spans="8:38" x14ac:dyDescent="0.3">
       <c r="H52" s="17" t="s">
         <v>16</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="8:38" x14ac:dyDescent="0.4">
+    <row r="53" spans="8:38" x14ac:dyDescent="0.3">
       <c r="H53" s="17" t="s">
         <v>16</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="8:38" x14ac:dyDescent="0.4">
+    <row r="54" spans="8:38" x14ac:dyDescent="0.3">
       <c r="H54" s="17" t="s">
         <v>16</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="8:38" x14ac:dyDescent="0.4">
+    <row r="55" spans="8:38" x14ac:dyDescent="0.3">
       <c r="H55" s="19" t="s">
         <v>81</v>
       </c>
@@ -3573,28 +3573,54 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="8:38" x14ac:dyDescent="0.4">
+    <row r="56" spans="8:38" x14ac:dyDescent="0.3">
       <c r="U56"/>
     </row>
-    <row r="57" spans="8:38" x14ac:dyDescent="0.4">
+    <row r="57" spans="8:38" x14ac:dyDescent="0.3">
       <c r="U57"/>
     </row>
-    <row r="58" spans="8:38" x14ac:dyDescent="0.4">
+    <row r="58" spans="8:38" x14ac:dyDescent="0.3">
       <c r="U58"/>
     </row>
-    <row r="59" spans="8:38" x14ac:dyDescent="0.4">
+    <row r="59" spans="8:38" x14ac:dyDescent="0.3">
       <c r="Q59"/>
       <c r="U59"/>
     </row>
-    <row r="60" spans="8:38" x14ac:dyDescent="0.4">
+    <row r="60" spans="8:38" x14ac:dyDescent="0.3">
       <c r="Q60"/>
       <c r="U60"/>
     </row>
-    <row r="61" spans="8:38" x14ac:dyDescent="0.4">
+    <row r="61" spans="8:38" x14ac:dyDescent="0.3">
       <c r="U61"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AD5:AP5"/>
+    <mergeCell ref="X6:Y8"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="AJ8:AL8"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="AT38:AV38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="Z11:AA12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="AH44:AJ44"/>
+    <mergeCell ref="AP38:AR38"/>
+    <mergeCell ref="AL38:AN38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="AD44:AF44"/>
     <mergeCell ref="J50:L50"/>
     <mergeCell ref="V44:X44"/>
     <mergeCell ref="Z44:AB44"/>
@@ -3609,35 +3635,9 @@
     <mergeCell ref="J32:L32"/>
     <mergeCell ref="X13:Y14"/>
     <mergeCell ref="Z13:AA14"/>
-    <mergeCell ref="AH44:AJ44"/>
-    <mergeCell ref="AP38:AR38"/>
-    <mergeCell ref="AL38:AN38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="AD44:AF44"/>
-    <mergeCell ref="AT38:AV38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="Z11:AA12"/>
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AD5:AP5"/>
-    <mergeCell ref="X6:Y8"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="AJ8:AL8"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="N12:P12"/>
   </mergeCells>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="3" scale="39" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="3" scale="37" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3649,15 +3649,15 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="E2" s="2"/>
       <c r="I2" s="2"/>
       <c r="M2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>28</v>
       </c>
@@ -3674,15 +3674,15 @@
       <c r="M3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="73"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="66"/>
       <c r="H4" s="4" t="s">
         <v>29</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
@@ -3745,7 +3745,7 @@
       <c r="M6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="F7" s="2"/>
       <c r="H7" s="8"/>
       <c r="I7" s="14" t="s">
@@ -3756,7 +3756,7 @@
       <c r="N7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="E8" s="2"/>
       <c r="H8" s="15" t="s">
         <v>13</v>
@@ -3767,13 +3767,13 @@
       <c r="M8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="E9" s="2"/>
       <c r="I9" s="2"/>
       <c r="M9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="H15" s="16" t="s">
         <v>106</v>
       </c>

--- a/PM/640_Netzplan/Netzplan_4.xlsx
+++ b/PM/640_Netzplan/Netzplan_4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\Documents\labor_mod_sim\PM\640_Netzplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz\Documents\GitHub\labor_mod_sim\PM\640_Netzplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094B628B-7D76-4E13-AA73-A80C3845B74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC5B37C-EAD0-417A-84F6-55280B163FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7560" yWindow="4920" windowWidth="28800" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1102,6 +1102,27 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1111,58 +1132,37 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="1" builtinId="21"/>
+    <cellStyle name="Ausgabe" xfId="1" builtinId="21"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1178,7 +1178,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1479,41 +1479,41 @@
   </sheetPr>
   <dimension ref="A1:AY61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AQ40" sqref="AQ40"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.33203125" style="2"/>
-    <col min="9" max="9" width="11.33203125" style="2"/>
-    <col min="13" max="13" width="11.33203125" style="2"/>
-    <col min="17" max="17" width="11.33203125" style="2" customWidth="1"/>
-    <col min="18" max="20" width="11.33203125" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" style="2"/>
+    <col min="5" max="5" width="11.28515625" style="2"/>
+    <col min="9" max="9" width="11.28515625" style="2"/>
+    <col min="13" max="13" width="11.28515625" style="2"/>
+    <col min="17" max="17" width="11.28515625" style="2" customWidth="1"/>
+    <col min="18" max="20" width="11.28515625" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="75" t="s">
+    <row r="1" spans="1:51" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-    </row>
-    <row r="2" spans="1:51" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+    </row>
+    <row r="2" spans="1:51" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>117</v>
       </c>
@@ -1565,29 +1565,29 @@
       <c r="U5" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="X5" s="70" t="s">
+      <c r="X5" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="70" t="s">
+      <c r="Y5" s="65"/>
+      <c r="Z5" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="AA5" s="70"/>
-      <c r="AD5" s="76" t="s">
+      <c r="AA5" s="65"/>
+      <c r="AD5" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="AE5" s="77"/>
-      <c r="AF5" s="77"/>
-      <c r="AG5" s="78"/>
-      <c r="AH5" s="78"/>
-      <c r="AI5" s="78"/>
-      <c r="AJ5" s="78"/>
-      <c r="AK5" s="78"/>
-      <c r="AL5" s="78"/>
-      <c r="AM5" s="78"/>
-      <c r="AN5" s="78"/>
-      <c r="AO5" s="78"/>
-      <c r="AP5" s="79"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="68"/>
+      <c r="AH5" s="68"/>
+      <c r="AI5" s="68"/>
+      <c r="AJ5" s="68"/>
+      <c r="AK5" s="68"/>
+      <c r="AL5" s="68"/>
+      <c r="AM5" s="68"/>
+      <c r="AN5" s="68"/>
+      <c r="AO5" s="68"/>
+      <c r="AP5" s="69"/>
       <c r="AT5" s="16"/>
       <c r="AU5" s="16"/>
       <c r="AV5" s="16"/>
@@ -1595,58 +1595,58 @@
       <c r="AX5" s="16"/>
       <c r="AY5" s="16"/>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="73"/>
       <c r="I6" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="64" t="s">
+      <c r="J6" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="65"/>
-      <c r="L6" s="66"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="73"/>
       <c r="M6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="64" t="s">
+      <c r="N6" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="65"/>
-      <c r="P6" s="66"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="73"/>
       <c r="Q6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="64" t="s">
+      <c r="R6" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="S6" s="65"/>
-      <c r="T6" s="66"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="73"/>
       <c r="U6" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="X6" s="69" t="s">
+      <c r="X6" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="70" t="s">
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="AA6" s="70"/>
+      <c r="AA6" s="65"/>
       <c r="AD6" s="46"/>
       <c r="AE6" s="27"/>
       <c r="AF6" s="28"/>
@@ -1664,7 +1664,7 @@
       <c r="AR6" s="20"/>
       <c r="AS6" s="20"/>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>44838</v>
       </c>
@@ -1731,12 +1731,12 @@
       <c r="U7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X7" s="69"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="70" t="s">
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="AA7" s="70"/>
+      <c r="AA7" s="65"/>
       <c r="AD7" s="50" t="s">
         <v>107</v>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="AP7" s="31"/>
       <c r="AS7" s="17"/>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <f>D8</f>
         <v>44844</v>
@@ -1831,30 +1831,30 @@
       <c r="U8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="70" t="s">
+      <c r="X8" s="70"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="AA8" s="70"/>
+      <c r="AA8" s="65"/>
       <c r="AD8" s="53"/>
       <c r="AE8" s="54"/>
       <c r="AF8" s="55"/>
       <c r="AG8" s="38"/>
       <c r="AH8" s="36"/>
       <c r="AI8" s="29"/>
-      <c r="AJ8" s="80" t="s">
+      <c r="AJ8" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="AK8" s="81"/>
-      <c r="AL8" s="82"/>
+      <c r="AK8" s="75"/>
+      <c r="AL8" s="76"/>
       <c r="AM8" s="29"/>
       <c r="AN8" s="29"/>
       <c r="AO8" s="29"/>
       <c r="AP8" s="31"/>
       <c r="AS8" s="17"/>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="I9" s="11" t="s">
         <v>16</v>
       </c>
@@ -1867,14 +1867,14 @@
       <c r="U9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="67" t="s">
+      <c r="X9" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="68">
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="80">
         <v>4</v>
       </c>
-      <c r="AA9" s="68"/>
+      <c r="AA9" s="80"/>
       <c r="AD9" s="50"/>
       <c r="AE9" s="51"/>
       <c r="AF9" s="52"/>
@@ -1901,7 +1901,7 @@
       <c r="AS9" s="17"/>
       <c r="AW9" s="13"/>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="I10" s="11" t="s">
         <v>16</v>
       </c>
@@ -1914,10 +1914,10 @@
       <c r="U10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X10" s="67"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="68"/>
-      <c r="AA10" s="68"/>
+      <c r="X10" s="81"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="80"/>
+      <c r="AA10" s="80"/>
       <c r="AD10" s="50"/>
       <c r="AE10" s="60" t="s">
         <v>109</v>
@@ -1945,7 +1945,7 @@
       <c r="AP10" s="31"/>
       <c r="AS10" s="17"/>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="I11" s="11" t="s">
         <v>16</v>
       </c>
@@ -1968,14 +1968,14 @@
       <c r="U11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X11" s="67" t="s">
+      <c r="X11" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="68">
+      <c r="Y11" s="81"/>
+      <c r="Z11" s="80">
         <v>12</v>
       </c>
-      <c r="AA11" s="68"/>
+      <c r="AA11" s="80"/>
       <c r="AD11" s="32"/>
       <c r="AE11" s="40"/>
       <c r="AF11" s="56"/>
@@ -1991,28 +1991,28 @@
       <c r="AP11" s="31"/>
       <c r="AS11" s="17"/>
     </row>
-    <row r="12" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I12" s="11" t="s">
         <v>16</v>
       </c>
       <c r="M12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="64" t="s">
+      <c r="N12" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="O12" s="65"/>
-      <c r="P12" s="66"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="73"/>
       <c r="Q12" s="20" t="s">
         <v>67</v>
       </c>
       <c r="U12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="80"/>
+      <c r="AA12" s="80"/>
       <c r="AD12" s="42"/>
       <c r="AE12" s="51"/>
       <c r="AF12" s="44"/>
@@ -2030,7 +2030,7 @@
       <c r="AP12" s="31"/>
       <c r="AS12" s="19"/>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="I13" s="11" t="s">
         <v>16</v>
       </c>
@@ -2052,14 +2052,14 @@
       <c r="U13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X13" s="67" t="s">
+      <c r="X13" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="68" t="s">
+      <c r="Y13" s="81"/>
+      <c r="Z13" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="AA13" s="68"/>
+      <c r="AA13" s="80"/>
       <c r="AD13" s="57" t="s">
         <v>112</v>
       </c>
@@ -2081,7 +2081,7 @@
       <c r="AP13" s="31"/>
       <c r="AS13" s="11"/>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="I14" s="11" t="s">
         <v>16</v>
       </c>
@@ -2104,10 +2104,10 @@
       <c r="U14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="68"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="81"/>
+      <c r="Z14" s="80"/>
+      <c r="AA14" s="80"/>
       <c r="AD14" s="43"/>
       <c r="AE14" s="33"/>
       <c r="AF14" s="45"/>
@@ -2123,7 +2123,7 @@
       <c r="AP14" s="34"/>
       <c r="AS14" s="11"/>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="I15" s="11" t="s">
         <v>16</v>
       </c>
@@ -2134,9 +2134,19 @@
       <c r="U15" s="17" t="s">
         <v>16</v>
       </c>
+      <c r="X15" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA15" s="23">
+        <v>44838</v>
+      </c>
       <c r="AS15" s="11"/>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="I16" s="11" t="s">
         <v>16</v>
       </c>
@@ -2147,9 +2157,17 @@
       <c r="U16" s="17" t="s">
         <v>16</v>
       </c>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="70"/>
+      <c r="Z16" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA16" s="23">
+        <v>44874</v>
+      </c>
       <c r="AS16" s="11"/>
     </row>
-    <row r="17" spans="7:45" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:45" x14ac:dyDescent="0.25">
       <c r="I17" s="11" t="s">
         <v>16</v>
       </c>
@@ -2160,9 +2178,17 @@
       <c r="U17" s="17" t="s">
         <v>16</v>
       </c>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA17" s="23">
+        <v>44936</v>
+      </c>
       <c r="AS17" s="11"/>
     </row>
-    <row r="18" spans="7:45" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:45" x14ac:dyDescent="0.25">
       <c r="G18" s="4"/>
       <c r="I18" s="11" t="s">
         <v>16</v>
@@ -2183,18 +2209,26 @@
       <c r="U18" s="17" t="s">
         <v>16</v>
       </c>
+      <c r="X18" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="82">
+        <v>44844</v>
+      </c>
+      <c r="AA18" s="65"/>
       <c r="AS18" s="15"/>
     </row>
-    <row r="19" spans="7:45" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:45" x14ac:dyDescent="0.25">
       <c r="G19" s="4"/>
       <c r="I19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="64" t="s">
+      <c r="J19" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="65"/>
-      <c r="L19" s="66"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="73"/>
       <c r="M19" s="20" t="s">
         <v>80</v>
       </c>
@@ -2214,7 +2248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="7:45" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:45" x14ac:dyDescent="0.25">
       <c r="I20" s="11" t="s">
         <v>16</v>
       </c>
@@ -2237,7 +2271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="7:45" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:45" x14ac:dyDescent="0.25">
       <c r="I21" s="11" t="s">
         <v>16</v>
       </c>
@@ -2261,7 +2295,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="7:45" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:45" x14ac:dyDescent="0.25">
       <c r="I22" s="11" t="s">
         <v>16</v>
       </c>
@@ -2274,7 +2308,7 @@
       </c>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="7:45" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:45" x14ac:dyDescent="0.25">
       <c r="I23" s="11" t="s">
         <v>16</v>
       </c>
@@ -2287,7 +2321,7 @@
       </c>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="7:45" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:45" x14ac:dyDescent="0.25">
       <c r="I24" s="11" t="s">
         <v>16</v>
       </c>
@@ -2299,7 +2333,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="7:45" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:45" x14ac:dyDescent="0.25">
       <c r="I25" s="11" t="s">
         <v>16</v>
       </c>
@@ -2320,15 +2354,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="7:45" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:45" x14ac:dyDescent="0.25">
       <c r="I26" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="64" t="s">
+      <c r="J26" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="K26" s="65"/>
-      <c r="L26" s="66"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="73"/>
       <c r="M26" s="20" t="s">
         <v>80</v>
       </c>
@@ -2347,18 +2381,8 @@
       <c r="U26" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X26" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y26" s="69"/>
-      <c r="Z26" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA26" s="23">
-        <v>44838</v>
-      </c>
-    </row>
-    <row r="27" spans="7:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="7:45" x14ac:dyDescent="0.25">
       <c r="I27" s="11" t="s">
         <v>16</v>
       </c>
@@ -2377,16 +2401,8 @@
       <c r="U27" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X27" s="69"/>
-      <c r="Y27" s="69"/>
-      <c r="Z27" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA27" s="23">
-        <v>44874</v>
-      </c>
-    </row>
-    <row r="28" spans="7:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="7:45" x14ac:dyDescent="0.25">
       <c r="I28" s="11" t="s">
         <v>16</v>
       </c>
@@ -2406,16 +2422,8 @@
       <c r="U28" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X28" s="69"/>
-      <c r="Y28" s="69"/>
-      <c r="Z28" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA28" s="23">
-        <v>44936</v>
-      </c>
-    </row>
-    <row r="29" spans="7:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="7:45" x14ac:dyDescent="0.25">
       <c r="I29" s="11" t="s">
         <v>16</v>
       </c>
@@ -2424,16 +2432,8 @@
       <c r="U29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X29" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y29" s="70"/>
-      <c r="Z29" s="71">
-        <v>44844</v>
-      </c>
-      <c r="AA29" s="70"/>
-    </row>
-    <row r="30" spans="7:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="7:45" x14ac:dyDescent="0.25">
       <c r="I30" s="11" t="s">
         <v>16</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="7:45" x14ac:dyDescent="0.3">
+    <row r="31" spans="7:45" x14ac:dyDescent="0.25">
       <c r="I31" s="11" t="s">
         <v>16</v>
       </c>
@@ -2460,18 +2460,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="7:45" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:45" x14ac:dyDescent="0.25">
       <c r="H32" s="19" t="s">
         <v>81</v>
       </c>
       <c r="I32" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J32" s="64" t="s">
+      <c r="J32" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="K32" s="65"/>
-      <c r="L32" s="66"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="73"/>
       <c r="M32" s="20" t="s">
         <v>80</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="8:49" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H33" s="17" t="s">
         <v>16</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="8:49" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H34" s="17" t="s">
         <v>16</v>
       </c>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="Z34" s="20"/>
     </row>
-    <row r="35" spans="8:49" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H35" s="17" t="s">
         <v>16</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="8:49" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H36" s="17" t="s">
         <v>16</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="8:49" x14ac:dyDescent="0.3">
+    <row r="37" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H37" s="17" t="s">
         <v>16</v>
       </c>
@@ -2679,42 +2679,42 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="8:49" x14ac:dyDescent="0.3">
+    <row r="38" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H38" s="17" t="s">
         <v>16</v>
       </c>
       <c r="I38" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J38" s="64" t="s">
+      <c r="J38" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="65"/>
-      <c r="L38" s="66"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="73"/>
       <c r="M38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="64" t="s">
+      <c r="N38" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="O38" s="65"/>
-      <c r="P38" s="66"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="73"/>
       <c r="Q38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R38" s="72" t="s">
+      <c r="R38" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="S38" s="73"/>
-      <c r="T38" s="74"/>
+      <c r="S38" s="78"/>
+      <c r="T38" s="79"/>
       <c r="U38" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="V38" s="72" t="s">
+      <c r="V38" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="W38" s="73"/>
-      <c r="X38" s="74"/>
+      <c r="W38" s="78"/>
+      <c r="X38" s="79"/>
       <c r="Y38" t="s">
         <v>112</v>
       </c>
@@ -2754,32 +2754,32 @@
       <c r="AK38" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="AL38" s="64" t="s">
+      <c r="AL38" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="AM38" s="65"/>
-      <c r="AN38" s="66"/>
+      <c r="AM38" s="72"/>
+      <c r="AN38" s="73"/>
       <c r="AO38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AP38" s="64" t="s">
+      <c r="AP38" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="AQ38" s="65"/>
-      <c r="AR38" s="66"/>
+      <c r="AQ38" s="72"/>
+      <c r="AR38" s="73"/>
       <c r="AS38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AT38" s="64" t="s">
+      <c r="AT38" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="AU38" s="65"/>
-      <c r="AV38" s="66"/>
+      <c r="AU38" s="72"/>
+      <c r="AV38" s="73"/>
       <c r="AW38" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="8:49" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H39" s="17" t="s">
         <v>16</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="8:49" x14ac:dyDescent="0.3">
+    <row r="40" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H40" s="17" t="s">
         <v>16</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="8:49" x14ac:dyDescent="0.3">
+    <row r="41" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H41" s="17" t="s">
         <v>16</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="42" spans="8:49" x14ac:dyDescent="0.3">
+    <row r="42" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H42" s="17" t="s">
         <v>16</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="8:49" x14ac:dyDescent="0.3">
+    <row r="43" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H43" s="17" t="s">
         <v>16</v>
       </c>
@@ -3093,18 +3093,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="8:49" x14ac:dyDescent="0.3">
+    <row r="44" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H44" s="17" t="s">
         <v>16</v>
       </c>
       <c r="I44" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J44" s="64" t="s">
+      <c r="J44" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K44" s="65"/>
-      <c r="L44" s="66"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="73"/>
       <c r="M44" s="20" t="s">
         <v>67</v>
       </c>
@@ -3114,35 +3114,35 @@
       <c r="U44" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="V44" s="64" t="s">
+      <c r="V44" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="W44" s="65"/>
-      <c r="X44" s="66"/>
+      <c r="W44" s="72"/>
+      <c r="X44" s="73"/>
       <c r="Y44" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Z44" s="64" t="s">
+      <c r="Z44" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="AA44" s="65"/>
-      <c r="AB44" s="66"/>
+      <c r="AA44" s="72"/>
+      <c r="AB44" s="73"/>
       <c r="AC44" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="AD44" s="64" t="s">
+      <c r="AD44" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="AE44" s="65"/>
-      <c r="AF44" s="66"/>
+      <c r="AE44" s="72"/>
+      <c r="AF44" s="73"/>
       <c r="AG44" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AH44" s="64" t="s">
+      <c r="AH44" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="AI44" s="65"/>
-      <c r="AJ44" s="66"/>
+      <c r="AI44" s="72"/>
+      <c r="AJ44" s="73"/>
       <c r="AK44" s="15" t="s">
         <v>67</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="8:49" x14ac:dyDescent="0.3">
+    <row r="45" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H45" s="17" t="s">
         <v>16</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="8:49" x14ac:dyDescent="0.3">
+    <row r="46" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H46" s="17" t="s">
         <v>16</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="8:49" x14ac:dyDescent="0.3">
+    <row r="47" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H47" s="17" t="s">
         <v>16</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="8:49" x14ac:dyDescent="0.3">
+    <row r="48" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H48" s="17" t="s">
         <v>16</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="8:38" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:38" x14ac:dyDescent="0.25">
       <c r="H49" s="17" t="s">
         <v>16</v>
       </c>
@@ -3368,18 +3368,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="8:38" x14ac:dyDescent="0.3">
+    <row r="50" spans="8:38" x14ac:dyDescent="0.25">
       <c r="H50" s="17" t="s">
         <v>16</v>
       </c>
       <c r="I50" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="64" t="s">
+      <c r="J50" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="K50" s="65"/>
-      <c r="L50" s="66"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="73"/>
       <c r="M50" s="20" t="s">
         <v>80</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="8:38" x14ac:dyDescent="0.3">
+    <row r="51" spans="8:38" x14ac:dyDescent="0.25">
       <c r="H51" s="17" t="s">
         <v>16</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="8:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="8:38" x14ac:dyDescent="0.25">
       <c r="H52" s="17" t="s">
         <v>16</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="8:38" x14ac:dyDescent="0.3">
+    <row r="53" spans="8:38" x14ac:dyDescent="0.25">
       <c r="H53" s="17" t="s">
         <v>16</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="8:38" x14ac:dyDescent="0.3">
+    <row r="54" spans="8:38" x14ac:dyDescent="0.25">
       <c r="H54" s="17" t="s">
         <v>16</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="8:38" x14ac:dyDescent="0.3">
+    <row r="55" spans="8:38" x14ac:dyDescent="0.25">
       <c r="H55" s="19" t="s">
         <v>81</v>
       </c>
@@ -3573,28 +3573,55 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="8:38" x14ac:dyDescent="0.3">
+    <row r="56" spans="8:38" x14ac:dyDescent="0.25">
       <c r="U56"/>
     </row>
-    <row r="57" spans="8:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="8:38" x14ac:dyDescent="0.25">
       <c r="U57"/>
     </row>
-    <row r="58" spans="8:38" x14ac:dyDescent="0.3">
+    <row r="58" spans="8:38" x14ac:dyDescent="0.25">
       <c r="U58"/>
     </row>
-    <row r="59" spans="8:38" x14ac:dyDescent="0.3">
+    <row r="59" spans="8:38" x14ac:dyDescent="0.25">
       <c r="Q59"/>
       <c r="U59"/>
     </row>
-    <row r="60" spans="8:38" x14ac:dyDescent="0.3">
+    <row r="60" spans="8:38" x14ac:dyDescent="0.25">
       <c r="Q60"/>
       <c r="U60"/>
     </row>
-    <row r="61" spans="8:38" x14ac:dyDescent="0.3">
+    <row r="61" spans="8:38" x14ac:dyDescent="0.25">
       <c r="U61"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="X9:Y10"/>
+    <mergeCell ref="Z9:AA10"/>
+    <mergeCell ref="X15:Y17"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="X11:Y12"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="X13:Y14"/>
+    <mergeCell ref="Z13:AA14"/>
+    <mergeCell ref="AH44:AJ44"/>
+    <mergeCell ref="AP38:AR38"/>
+    <mergeCell ref="AL38:AN38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="AD44:AF44"/>
+    <mergeCell ref="AT38:AV38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="Z11:AA12"/>
+    <mergeCell ref="N12:P12"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="X5:Y5"/>
     <mergeCell ref="Z5:AA5"/>
@@ -3608,33 +3635,6 @@
     <mergeCell ref="AJ8:AL8"/>
     <mergeCell ref="R6:T6"/>
     <mergeCell ref="J6:L6"/>
-    <mergeCell ref="AT38:AV38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="Z11:AA12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="AH44:AJ44"/>
-    <mergeCell ref="AP38:AR38"/>
-    <mergeCell ref="AL38:AN38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="AD44:AF44"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="X9:Y10"/>
-    <mergeCell ref="Z9:AA10"/>
-    <mergeCell ref="X26:Y28"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="X11:Y12"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="X13:Y14"/>
-    <mergeCell ref="Z13:AA14"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="3" scale="37" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3649,15 +3649,15 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E2" s="2"/>
       <c r="I2" s="2"/>
       <c r="M2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>28</v>
       </c>
@@ -3674,15 +3674,15 @@
       <c r="M3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="73"/>
       <c r="H4" s="4" t="s">
         <v>29</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
@@ -3745,7 +3745,7 @@
       <c r="M6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F7" s="2"/>
       <c r="H7" s="8"/>
       <c r="I7" s="14" t="s">
@@ -3756,7 +3756,7 @@
       <c r="N7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E8" s="2"/>
       <c r="H8" s="15" t="s">
         <v>13</v>
@@ -3767,13 +3767,13 @@
       <c r="M8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E9" s="2"/>
       <c r="I9" s="2"/>
       <c r="M9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H15" s="16" t="s">
         <v>106</v>
       </c>

--- a/PM/640_Netzplan/Netzplan_4.xlsx
+++ b/PM/640_Netzplan/Netzplan_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz\Documents\GitHub\labor_mod_sim\PM\640_Netzplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC5B37C-EAD0-417A-84F6-55280B163FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C1EE6D-C313-4D00-B673-329F6B1C08CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="4920" windowWidth="28800" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15855" yWindow="3285" windowWidth="21825" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="133">
   <si>
     <t>1.1</t>
   </si>
@@ -637,6 +637,9 @@
   </si>
   <si>
     <t>Mögliche Arbeitstage</t>
+  </si>
+  <si>
+    <t>MS5</t>
   </si>
 </sst>
 </file>
@@ -1102,12 +1105,42 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1120,18 +1153,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1140,24 +1161,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1479,8 +1482,8 @@
   </sheetPr>
   <dimension ref="A1:AY61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y29" sqref="Y29"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,24 +1497,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:51" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
@@ -1563,31 +1566,31 @@
         <v>47</v>
       </c>
       <c r="U5" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="X5" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="X5" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="65" t="s">
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="AA5" s="65"/>
-      <c r="AD5" s="66" t="s">
+      <c r="AA5" s="70"/>
+      <c r="AD5" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="68"/>
-      <c r="AH5" s="68"/>
-      <c r="AI5" s="68"/>
-      <c r="AJ5" s="68"/>
-      <c r="AK5" s="68"/>
-      <c r="AL5" s="68"/>
-      <c r="AM5" s="68"/>
-      <c r="AN5" s="68"/>
-      <c r="AO5" s="68"/>
-      <c r="AP5" s="69"/>
+      <c r="AE5" s="77"/>
+      <c r="AF5" s="77"/>
+      <c r="AG5" s="78"/>
+      <c r="AH5" s="78"/>
+      <c r="AI5" s="78"/>
+      <c r="AJ5" s="78"/>
+      <c r="AK5" s="78"/>
+      <c r="AL5" s="78"/>
+      <c r="AM5" s="78"/>
+      <c r="AN5" s="78"/>
+      <c r="AO5" s="78"/>
+      <c r="AP5" s="79"/>
       <c r="AT5" s="16"/>
       <c r="AU5" s="16"/>
       <c r="AV5" s="16"/>
@@ -1599,54 +1602,54 @@
       <c r="A6" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="73"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="F6" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="73"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="66"/>
       <c r="I6" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="71" t="s">
+      <c r="J6" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="72"/>
-      <c r="L6" s="73"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="66"/>
       <c r="M6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="71" t="s">
+      <c r="N6" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="72"/>
-      <c r="P6" s="73"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="66"/>
       <c r="Q6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="71" t="s">
+      <c r="R6" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="S6" s="72"/>
-      <c r="T6" s="73"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="66"/>
       <c r="U6" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="X6" s="70" t="s">
+      <c r="X6" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="65" t="s">
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="AA6" s="65"/>
+      <c r="AA6" s="70"/>
       <c r="AD6" s="46"/>
       <c r="AE6" s="27"/>
       <c r="AF6" s="28"/>
@@ -1731,12 +1734,12 @@
       <c r="U7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X7" s="70"/>
-      <c r="Y7" s="70"/>
-      <c r="Z7" s="65" t="s">
+      <c r="X7" s="69"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="AA7" s="65"/>
+      <c r="AA7" s="70"/>
       <c r="AD7" s="50" t="s">
         <v>107</v>
       </c>
@@ -1831,23 +1834,23 @@
       <c r="U8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X8" s="70"/>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="65" t="s">
+      <c r="X8" s="69"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="AA8" s="65"/>
+      <c r="AA8" s="70"/>
       <c r="AD8" s="53"/>
       <c r="AE8" s="54"/>
       <c r="AF8" s="55"/>
       <c r="AG8" s="38"/>
       <c r="AH8" s="36"/>
       <c r="AI8" s="29"/>
-      <c r="AJ8" s="74" t="s">
+      <c r="AJ8" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="AK8" s="75"/>
-      <c r="AL8" s="76"/>
+      <c r="AK8" s="81"/>
+      <c r="AL8" s="82"/>
       <c r="AM8" s="29"/>
       <c r="AN8" s="29"/>
       <c r="AO8" s="29"/>
@@ -1867,14 +1870,14 @@
       <c r="U9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="81" t="s">
+      <c r="X9" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="Y9" s="81"/>
-      <c r="Z9" s="80">
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="68">
         <v>4</v>
       </c>
-      <c r="AA9" s="80"/>
+      <c r="AA9" s="68"/>
       <c r="AD9" s="50"/>
       <c r="AE9" s="51"/>
       <c r="AF9" s="52"/>
@@ -1914,10 +1917,10 @@
       <c r="U10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X10" s="81"/>
-      <c r="Y10" s="81"/>
-      <c r="Z10" s="80"/>
-      <c r="AA10" s="80"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="68"/>
       <c r="AD10" s="50"/>
       <c r="AE10" s="60" t="s">
         <v>109</v>
@@ -1968,14 +1971,14 @@
       <c r="U11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X11" s="81" t="s">
+      <c r="X11" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="Y11" s="81"/>
-      <c r="Z11" s="80">
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="68">
         <v>12</v>
       </c>
-      <c r="AA11" s="80"/>
+      <c r="AA11" s="68"/>
       <c r="AD11" s="32"/>
       <c r="AE11" s="40"/>
       <c r="AF11" s="56"/>
@@ -1998,21 +2001,21 @@
       <c r="M12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="71" t="s">
+      <c r="N12" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="O12" s="72"/>
-      <c r="P12" s="73"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="66"/>
       <c r="Q12" s="20" t="s">
         <v>67</v>
       </c>
       <c r="U12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X12" s="81"/>
-      <c r="Y12" s="81"/>
-      <c r="Z12" s="80"/>
-      <c r="AA12" s="80"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
       <c r="AD12" s="42"/>
       <c r="AE12" s="51"/>
       <c r="AF12" s="44"/>
@@ -2052,14 +2055,14 @@
       <c r="U13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X13" s="81" t="s">
+      <c r="X13" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="Y13" s="81"/>
-      <c r="Z13" s="80" t="s">
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="AA13" s="80"/>
+      <c r="AA13" s="68"/>
       <c r="AD13" s="57" t="s">
         <v>112</v>
       </c>
@@ -2104,10 +2107,10 @@
       <c r="U14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X14" s="81"/>
-      <c r="Y14" s="81"/>
-      <c r="Z14" s="80"/>
-      <c r="AA14" s="80"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
       <c r="AD14" s="43"/>
       <c r="AE14" s="33"/>
       <c r="AF14" s="45"/>
@@ -2134,10 +2137,10 @@
       <c r="U15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X15" s="70" t="s">
+      <c r="X15" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="Y15" s="70"/>
+      <c r="Y15" s="69"/>
       <c r="Z15" s="21" t="s">
         <v>91</v>
       </c>
@@ -2157,8 +2160,8 @@
       <c r="U16" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X16" s="70"/>
-      <c r="Y16" s="70"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
       <c r="Z16" s="21" t="s">
         <v>92</v>
       </c>
@@ -2178,8 +2181,8 @@
       <c r="U17" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="70"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="69"/>
       <c r="Z17" s="22" t="s">
         <v>93</v>
       </c>
@@ -2209,14 +2212,14 @@
       <c r="U18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X18" s="65" t="s">
+      <c r="X18" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="82">
+      <c r="Y18" s="70"/>
+      <c r="Z18" s="71">
         <v>44844</v>
       </c>
-      <c r="AA18" s="65"/>
+      <c r="AA18" s="70"/>
       <c r="AS18" s="15"/>
     </row>
     <row r="19" spans="7:45" x14ac:dyDescent="0.25">
@@ -2224,11 +2227,11 @@
       <c r="I19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="71" t="s">
+      <c r="J19" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="72"/>
-      <c r="L19" s="73"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="66"/>
       <c r="M19" s="20" t="s">
         <v>80</v>
       </c>
@@ -2358,11 +2361,11 @@
       <c r="I26" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="71" t="s">
+      <c r="J26" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="K26" s="72"/>
-      <c r="L26" s="73"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="66"/>
       <c r="M26" s="20" t="s">
         <v>80</v>
       </c>
@@ -2467,11 +2470,11 @@
       <c r="I32" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J32" s="71" t="s">
+      <c r="J32" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="K32" s="72"/>
-      <c r="L32" s="73"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="66"/>
       <c r="M32" s="20" t="s">
         <v>80</v>
       </c>
@@ -2686,35 +2689,35 @@
       <c r="I38" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J38" s="71" t="s">
+      <c r="J38" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="72"/>
-      <c r="L38" s="73"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="66"/>
       <c r="M38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="71" t="s">
+      <c r="N38" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="O38" s="72"/>
-      <c r="P38" s="73"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="66"/>
       <c r="Q38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R38" s="77" t="s">
+      <c r="R38" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="S38" s="78"/>
-      <c r="T38" s="79"/>
+      <c r="S38" s="73"/>
+      <c r="T38" s="74"/>
       <c r="U38" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="V38" s="77" t="s">
+      <c r="V38" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="W38" s="78"/>
-      <c r="X38" s="79"/>
+      <c r="W38" s="73"/>
+      <c r="X38" s="74"/>
       <c r="Y38" t="s">
         <v>112</v>
       </c>
@@ -2754,27 +2757,27 @@
       <c r="AK38" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="AL38" s="71" t="s">
+      <c r="AL38" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="AM38" s="72"/>
-      <c r="AN38" s="73"/>
+      <c r="AM38" s="65"/>
+      <c r="AN38" s="66"/>
       <c r="AO38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AP38" s="71" t="s">
+      <c r="AP38" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="AQ38" s="72"/>
-      <c r="AR38" s="73"/>
+      <c r="AQ38" s="65"/>
+      <c r="AR38" s="66"/>
       <c r="AS38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AT38" s="71" t="s">
+      <c r="AT38" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="AU38" s="72"/>
-      <c r="AV38" s="73"/>
+      <c r="AU38" s="65"/>
+      <c r="AV38" s="66"/>
       <c r="AW38" s="9" t="s">
         <v>52</v>
       </c>
@@ -3100,11 +3103,11 @@
       <c r="I44" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J44" s="71" t="s">
+      <c r="J44" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="K44" s="72"/>
-      <c r="L44" s="73"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="66"/>
       <c r="M44" s="20" t="s">
         <v>67</v>
       </c>
@@ -3114,35 +3117,35 @@
       <c r="U44" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="V44" s="71" t="s">
+      <c r="V44" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="W44" s="72"/>
-      <c r="X44" s="73"/>
+      <c r="W44" s="65"/>
+      <c r="X44" s="66"/>
       <c r="Y44" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Z44" s="71" t="s">
+      <c r="Z44" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="AA44" s="72"/>
-      <c r="AB44" s="73"/>
+      <c r="AA44" s="65"/>
+      <c r="AB44" s="66"/>
       <c r="AC44" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="AD44" s="71" t="s">
+      <c r="AD44" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="AE44" s="72"/>
-      <c r="AF44" s="73"/>
+      <c r="AE44" s="65"/>
+      <c r="AF44" s="66"/>
       <c r="AG44" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AH44" s="71" t="s">
+      <c r="AH44" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="AI44" s="72"/>
-      <c r="AJ44" s="73"/>
+      <c r="AI44" s="65"/>
+      <c r="AJ44" s="66"/>
       <c r="AK44" s="15" t="s">
         <v>67</v>
       </c>
@@ -3375,11 +3378,11 @@
       <c r="I50" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="71" t="s">
+      <c r="J50" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="K50" s="72"/>
-      <c r="L50" s="73"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="66"/>
       <c r="M50" s="20" t="s">
         <v>80</v>
       </c>
@@ -3595,6 +3598,32 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AD5:AP5"/>
+    <mergeCell ref="X6:Y8"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="AJ8:AL8"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="AT38:AV38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="Z11:AA12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="AH44:AJ44"/>
+    <mergeCell ref="AP38:AR38"/>
+    <mergeCell ref="AL38:AN38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="AD44:AF44"/>
     <mergeCell ref="J50:L50"/>
     <mergeCell ref="V44:X44"/>
     <mergeCell ref="Z44:AB44"/>
@@ -3609,32 +3638,6 @@
     <mergeCell ref="J32:L32"/>
     <mergeCell ref="X13:Y14"/>
     <mergeCell ref="Z13:AA14"/>
-    <mergeCell ref="AH44:AJ44"/>
-    <mergeCell ref="AP38:AR38"/>
-    <mergeCell ref="AL38:AN38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="AD44:AF44"/>
-    <mergeCell ref="AT38:AV38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="Z11:AA12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AD5:AP5"/>
-    <mergeCell ref="X6:Y8"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="AJ8:AL8"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="J6:L6"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="3" scale="37" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3678,11 +3681,11 @@
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="73"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="66"/>
       <c r="H4" s="4" t="s">
         <v>29</v>
       </c>

--- a/PM/640_Netzplan/Netzplan_4.xlsx
+++ b/PM/640_Netzplan/Netzplan_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz\Documents\GitHub\labor_mod_sim\PM\640_Netzplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C1EE6D-C313-4D00-B673-329F6B1C08CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8857B47-6787-4B0D-9671-4A7CB661A654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15855" yWindow="3285" windowWidth="21825" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="134">
   <si>
     <t>1.1</t>
   </si>
@@ -640,6 +640,9 @@
   </si>
   <si>
     <t>MS5</t>
+  </si>
+  <si>
+    <t>^</t>
   </si>
 </sst>
 </file>
@@ -719,7 +722,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -755,8 +758,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -851,17 +860,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -932,17 +930,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -958,7 +945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1016,48 +1003,28 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1065,29 +1032,29 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -1105,6 +1072,27 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1114,52 +1102,61 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1482,8 +1479,8 @@
   </sheetPr>
   <dimension ref="A1:AY61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" topLeftCell="U7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD44" sqref="AD44:AF44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1497,27 +1494,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:51" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="50" t="s">
         <v>117</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1568,29 +1565,29 @@
       <c r="U5" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="X5" s="70" t="s">
+      <c r="X5" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="70" t="s">
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="AA5" s="70"/>
-      <c r="AD5" s="76" t="s">
+      <c r="AA5" s="57"/>
+      <c r="AD5" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="AE5" s="77"/>
-      <c r="AF5" s="77"/>
-      <c r="AG5" s="78"/>
-      <c r="AH5" s="78"/>
-      <c r="AI5" s="78"/>
-      <c r="AJ5" s="78"/>
-      <c r="AK5" s="78"/>
-      <c r="AL5" s="78"/>
-      <c r="AM5" s="78"/>
-      <c r="AN5" s="78"/>
-      <c r="AO5" s="78"/>
-      <c r="AP5" s="79"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="60"/>
+      <c r="AH5" s="60"/>
+      <c r="AI5" s="60"/>
+      <c r="AJ5" s="60"/>
+      <c r="AK5" s="60"/>
+      <c r="AL5" s="60"/>
+      <c r="AM5" s="60"/>
+      <c r="AN5" s="60"/>
+      <c r="AO5" s="60"/>
+      <c r="AP5" s="61"/>
       <c r="AT5" s="16"/>
       <c r="AU5" s="16"/>
       <c r="AV5" s="16"/>
@@ -1602,67 +1599,67 @@
       <c r="A6" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
       <c r="I6" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="64" t="s">
+      <c r="J6" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="65"/>
-      <c r="L6" s="66"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="65"/>
       <c r="M6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="64" t="s">
+      <c r="N6" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="65"/>
-      <c r="P6" s="66"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="65"/>
       <c r="Q6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="64" t="s">
+      <c r="R6" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="S6" s="65"/>
-      <c r="T6" s="66"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="65"/>
       <c r="U6" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="X6" s="69" t="s">
+      <c r="X6" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="70" t="s">
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="AA6" s="70"/>
-      <c r="AD6" s="46"/>
+      <c r="AA6" s="57"/>
+      <c r="AD6" s="38"/>
       <c r="AE6" s="27"/>
       <c r="AF6" s="28"/>
-      <c r="AG6" s="29"/>
-      <c r="AH6" s="29"/>
-      <c r="AI6" s="41"/>
-      <c r="AJ6" s="29"/>
-      <c r="AK6" s="29"/>
-      <c r="AL6" s="29"/>
-      <c r="AM6" s="29"/>
-      <c r="AN6" s="29"/>
-      <c r="AO6" s="29"/>
-      <c r="AP6" s="31"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="27"/>
+      <c r="AK6" s="27"/>
+      <c r="AL6" s="27"/>
+      <c r="AM6" s="27"/>
+      <c r="AN6" s="27"/>
+      <c r="AO6" s="27"/>
+      <c r="AP6" s="28"/>
       <c r="AQ6" s="20"/>
       <c r="AR6" s="20"/>
       <c r="AS6" s="20"/>
@@ -1671,7 +1668,7 @@
       <c r="B7" s="7">
         <v>44838</v>
       </c>
-      <c r="C7" s="63">
+      <c r="C7" s="55">
         <f>D8-D7-2</f>
         <v>4</v>
       </c>
@@ -1682,7 +1679,7 @@
         <f>D7</f>
         <v>04.10.2022</v>
       </c>
-      <c r="G7" s="63">
+      <c r="G7" s="55">
         <f>H8-H7-2</f>
         <v>4</v>
       </c>
@@ -1696,7 +1693,7 @@
         <f>H7+1</f>
         <v>44839</v>
       </c>
-      <c r="K7" s="63">
+      <c r="K7" s="55">
         <f>L8-L7-2*10+1</f>
         <v>49</v>
       </c>
@@ -1710,7 +1707,7 @@
         <f>L7+1</f>
         <v>44855</v>
       </c>
-      <c r="O7" s="63">
+      <c r="O7" s="55">
         <f>P8-P7-2*10+1</f>
         <v>51</v>
       </c>
@@ -1724,7 +1721,7 @@
         <f>P7+1</f>
         <v>44869</v>
       </c>
-      <c r="S7" s="63">
+      <c r="S7" s="55">
         <f>T8-T7-2*10+1</f>
         <v>52</v>
       </c>
@@ -1734,20 +1731,20 @@
       <c r="U7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X7" s="69"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="70" t="s">
+      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="AA7" s="70"/>
-      <c r="AD7" s="50" t="s">
+      <c r="AA7" s="57"/>
+      <c r="AD7" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="AE7" s="51"/>
-      <c r="AF7" s="52"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="36"/>
-      <c r="AI7" s="37"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="77"/>
       <c r="AJ7" s="26" t="s">
         <v>18</v>
       </c>
@@ -1757,10 +1754,10 @@
       <c r="AL7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="30"/>
-      <c r="AO7" s="29"/>
-      <c r="AP7" s="31"/>
+      <c r="AM7" s="75"/>
+      <c r="AN7" s="78"/>
+      <c r="AO7" s="75"/>
+      <c r="AP7" s="29"/>
       <c r="AS7" s="17"/>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
@@ -1828,33 +1825,33 @@
       <c r="S8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T8" s="61">
+      <c r="T8" s="53">
         <v>44946</v>
       </c>
       <c r="U8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="70" t="s">
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="AA8" s="70"/>
-      <c r="AD8" s="53"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="29"/>
-      <c r="AJ8" s="80" t="s">
+      <c r="AA8" s="57"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="75"/>
+      <c r="AJ8" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="AK8" s="81"/>
-      <c r="AL8" s="82"/>
-      <c r="AM8" s="29"/>
-      <c r="AN8" s="29"/>
-      <c r="AO8" s="29"/>
-      <c r="AP8" s="31"/>
+      <c r="AK8" s="67"/>
+      <c r="AL8" s="68"/>
+      <c r="AM8" s="75"/>
+      <c r="AN8" s="75"/>
+      <c r="AO8" s="75"/>
+      <c r="AP8" s="29"/>
       <c r="AS8" s="17"/>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
@@ -1865,27 +1862,27 @@
         <v>16</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="U9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="67" t="s">
+      <c r="X9" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="68">
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="72">
         <v>4</v>
       </c>
-      <c r="AA9" s="68"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="51"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="38" t="s">
+      <c r="AA9" s="72"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="43"/>
+      <c r="AF9" s="44"/>
+      <c r="AG9" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="29"/>
+      <c r="AH9" s="33"/>
+      <c r="AI9" s="75"/>
       <c r="AJ9" s="26" t="s">
         <v>22</v>
       </c>
@@ -1895,12 +1892,12 @@
       <c r="AL9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="AM9" s="35" t="s">
+      <c r="AM9" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="29"/>
-      <c r="AP9" s="31"/>
+      <c r="AN9" s="75"/>
+      <c r="AO9" s="75"/>
+      <c r="AP9" s="29"/>
       <c r="AS9" s="17"/>
       <c r="AW9" s="13"/>
     </row>
@@ -1917,20 +1914,20 @@
       <c r="U10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X10" s="67"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="68"/>
-      <c r="AA10" s="68"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="60" t="s">
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="36" t="s">
+      <c r="AF10" s="44"/>
+      <c r="AG10" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="AH10" s="36"/>
-      <c r="AI10" s="29"/>
+      <c r="AH10" s="33"/>
+      <c r="AI10" s="75"/>
       <c r="AJ10" s="26" t="s">
         <v>25</v>
       </c>
@@ -1940,19 +1937,19 @@
       <c r="AL10" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="AM10" s="35" t="s">
+      <c r="AM10" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="AN10" s="29"/>
-      <c r="AO10" s="29"/>
-      <c r="AP10" s="31"/>
+      <c r="AN10" s="75"/>
+      <c r="AO10" s="75"/>
+      <c r="AP10" s="29"/>
       <c r="AS10" s="17"/>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="I11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="47"/>
+      <c r="L11" s="39"/>
       <c r="M11" s="17" t="s">
         <v>16</v>
       </c>
@@ -1971,27 +1968,27 @@
       <c r="U11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X11" s="67" t="s">
+      <c r="X11" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="68">
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="72">
         <v>12</v>
       </c>
-      <c r="AA11" s="68"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="40"/>
-      <c r="AF11" s="56"/>
-      <c r="AG11" s="38"/>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="29"/>
-      <c r="AK11" s="29"/>
-      <c r="AL11" s="29"/>
-      <c r="AM11" s="29"/>
-      <c r="AN11" s="29"/>
-      <c r="AO11" s="29"/>
-      <c r="AP11" s="31"/>
+      <c r="AA11" s="72"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="48"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="75"/>
+      <c r="AJ11" s="75"/>
+      <c r="AK11" s="75"/>
+      <c r="AL11" s="75"/>
+      <c r="AM11" s="75"/>
+      <c r="AN11" s="75"/>
+      <c r="AO11" s="75"/>
+      <c r="AP11" s="29"/>
       <c r="AS11" s="17"/>
     </row>
     <row r="12" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2001,36 +1998,36 @@
       <c r="M12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="64" t="s">
+      <c r="N12" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="O12" s="65"/>
-      <c r="P12" s="66"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="65"/>
       <c r="Q12" s="20" t="s">
         <v>67</v>
       </c>
       <c r="U12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AD12" s="42"/>
-      <c r="AE12" s="51"/>
-      <c r="AF12" s="44"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="36"/>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="29" t="s">
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="72"/>
+      <c r="AA12" s="72"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="43"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="34"/>
+      <c r="AH12" s="33"/>
+      <c r="AI12" s="75"/>
+      <c r="AJ12" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="AK12" s="29"/>
-      <c r="AL12" s="29"/>
-      <c r="AM12" s="29"/>
-      <c r="AN12" s="29"/>
-      <c r="AO12" s="29"/>
-      <c r="AP12" s="31"/>
+      <c r="AK12" s="75"/>
+      <c r="AL12" s="75"/>
+      <c r="AM12" s="75"/>
+      <c r="AN12" s="75"/>
+      <c r="AO12" s="75"/>
+      <c r="AP12" s="29"/>
       <c r="AS12" s="19"/>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
@@ -2042,7 +2039,7 @@
         <f>L7+1</f>
         <v>44855</v>
       </c>
-      <c r="O13" s="63">
+      <c r="O13" s="55">
         <f>P14-P13-2*10+1</f>
         <v>51</v>
       </c>
@@ -2055,33 +2052,33 @@
       <c r="U13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X13" s="67" t="s">
+      <c r="X13" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="68" t="s">
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="AA13" s="68"/>
-      <c r="AD13" s="57" t="s">
+      <c r="AA13" s="72"/>
+      <c r="AD13" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="AE13" s="36" t="s">
+      <c r="AE13" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="AF13" s="31"/>
-      <c r="AG13" s="38"/>
-      <c r="AH13" s="36"/>
-      <c r="AI13" s="29"/>
-      <c r="AJ13" s="29" t="s">
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="33"/>
+      <c r="AI13" s="75"/>
+      <c r="AJ13" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="AK13" s="29"/>
-      <c r="AL13" s="29"/>
-      <c r="AM13" s="29"/>
-      <c r="AN13" s="29"/>
-      <c r="AO13" s="29"/>
-      <c r="AP13" s="31"/>
+      <c r="AK13" s="75"/>
+      <c r="AL13" s="75"/>
+      <c r="AM13" s="75"/>
+      <c r="AN13" s="75"/>
+      <c r="AO13" s="75"/>
+      <c r="AP13" s="29"/>
       <c r="AS13" s="11"/>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
@@ -2107,23 +2104,23 @@
       <c r="U14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="68"/>
-      <c r="AD14" s="43"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="45"/>
-      <c r="AG14" s="39"/>
-      <c r="AH14" s="40"/>
-      <c r="AI14" s="33"/>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="33"/>
-      <c r="AL14" s="33"/>
-      <c r="AM14" s="33"/>
-      <c r="AN14" s="33"/>
-      <c r="AO14" s="33"/>
-      <c r="AP14" s="34"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="72"/>
+      <c r="AA14" s="72"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="33"/>
+      <c r="AI14" s="75"/>
+      <c r="AJ14" s="75"/>
+      <c r="AK14" s="75"/>
+      <c r="AL14" s="75"/>
+      <c r="AM14" s="75"/>
+      <c r="AN14" s="75"/>
+      <c r="AO14" s="75"/>
+      <c r="AP14" s="29"/>
       <c r="AS14" s="11"/>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
@@ -2137,16 +2134,29 @@
       <c r="U15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X15" s="69" t="s">
+      <c r="X15" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="Y15" s="69"/>
+      <c r="Y15" s="62"/>
       <c r="Z15" s="21" t="s">
         <v>91</v>
       </c>
       <c r="AA15" s="23">
         <v>44838</v>
       </c>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="75"/>
+      <c r="AH15" s="75"/>
+      <c r="AI15" s="75"/>
+      <c r="AJ15" s="75"/>
+      <c r="AK15" s="75"/>
+      <c r="AL15" s="75"/>
+      <c r="AM15" s="75"/>
+      <c r="AN15" s="75"/>
+      <c r="AO15" s="75"/>
+      <c r="AP15" s="29"/>
       <c r="AS15" s="11"/>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
@@ -2155,19 +2165,34 @@
       </c>
       <c r="M16" s="17"/>
       <c r="Q16" s="17" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="U16" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
       <c r="Z16" s="21" t="s">
         <v>92</v>
       </c>
       <c r="AA16" s="23">
         <v>44874</v>
       </c>
+      <c r="AD16" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE16" s="82"/>
+      <c r="AF16" s="83"/>
+      <c r="AG16" s="80"/>
+      <c r="AH16" s="75"/>
+      <c r="AI16" s="75"/>
+      <c r="AJ16" s="75"/>
+      <c r="AK16" s="75"/>
+      <c r="AL16" s="75"/>
+      <c r="AM16" s="75"/>
+      <c r="AN16" s="75"/>
+      <c r="AO16" s="75"/>
+      <c r="AP16" s="29"/>
       <c r="AS16" s="11"/>
     </row>
     <row r="17" spans="7:45" x14ac:dyDescent="0.25">
@@ -2181,14 +2206,27 @@
       <c r="U17" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="69"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
       <c r="Z17" s="22" t="s">
         <v>93</v>
       </c>
       <c r="AA17" s="23">
         <v>44936</v>
       </c>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="32"/>
+      <c r="AG17" s="30"/>
+      <c r="AH17" s="31"/>
+      <c r="AI17" s="31"/>
+      <c r="AJ17" s="31"/>
+      <c r="AK17" s="31"/>
+      <c r="AL17" s="31"/>
+      <c r="AM17" s="31"/>
+      <c r="AN17" s="31"/>
+      <c r="AO17" s="31"/>
+      <c r="AP17" s="32"/>
       <c r="AS17" s="11"/>
     </row>
     <row r="18" spans="7:45" x14ac:dyDescent="0.25">
@@ -2212,14 +2250,14 @@
       <c r="U18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X18" s="70" t="s">
+      <c r="X18" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="Y18" s="70"/>
-      <c r="Z18" s="71">
-        <v>44844</v>
-      </c>
-      <c r="AA18" s="70"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="74">
+        <v>44887</v>
+      </c>
+      <c r="AA18" s="57"/>
       <c r="AS18" s="15"/>
     </row>
     <row r="19" spans="7:45" x14ac:dyDescent="0.25">
@@ -2227,11 +2265,11 @@
       <c r="I19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="64" t="s">
+      <c r="J19" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="65"/>
-      <c r="L19" s="66"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="65"/>
       <c r="M19" s="20" t="s">
         <v>80</v>
       </c>
@@ -2248,7 +2286,7 @@
         <v>16</v>
       </c>
       <c r="U19" s="17" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="7:45" x14ac:dyDescent="0.25">
@@ -2259,7 +2297,7 @@
         <f>H7+1</f>
         <v>44839</v>
       </c>
-      <c r="K20" s="63">
+      <c r="K20" s="55">
         <f>L21-L20-2*13+1</f>
         <v>66</v>
       </c>
@@ -2304,7 +2342,7 @@
       </c>
       <c r="M22" s="17"/>
       <c r="Q22" s="17" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="U22" s="17" t="s">
         <v>16</v>
@@ -2361,11 +2399,11 @@
       <c r="I26" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="64" t="s">
+      <c r="J26" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="K26" s="65"/>
-      <c r="L26" s="66"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="65"/>
       <c r="M26" s="20" t="s">
         <v>80</v>
       </c>
@@ -2393,7 +2431,7 @@
         <f>H7+1</f>
         <v>44839</v>
       </c>
-      <c r="K27" s="63">
+      <c r="K27" s="55">
         <f>L28-L27-2*12+1</f>
         <v>54</v>
       </c>
@@ -2470,11 +2508,11 @@
       <c r="I32" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J32" s="64" t="s">
+      <c r="J32" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="K32" s="65"/>
-      <c r="L32" s="66"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="65"/>
       <c r="M32" s="20" t="s">
         <v>80</v>
       </c>
@@ -2510,11 +2548,11 @@
       <c r="I33" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J33" s="62" t="s">
+      <c r="J33" s="54" t="s">
         <v>109</v>
       </c>
       <c r="K33" s="1"/>
-      <c r="L33" s="62" t="s">
+      <c r="L33" s="54" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2525,11 +2563,11 @@
       <c r="I34" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J34" s="62" t="s">
+      <c r="J34" s="54" t="s">
         <v>109</v>
       </c>
       <c r="K34" s="18"/>
-      <c r="L34" s="62" t="s">
+      <c r="L34" s="54" t="s">
         <v>109</v>
       </c>
       <c r="M34" s="20" t="s">
@@ -2580,10 +2618,10 @@
       <c r="I35" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J35" s="47">
+      <c r="J35" s="39">
         <v>44839</v>
       </c>
-      <c r="L35" s="47">
+      <c r="L35" s="39">
         <v>44946</v>
       </c>
       <c r="Y35" s="17" t="s">
@@ -2678,7 +2716,7 @@
       <c r="AV37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AW37" s="49" t="s">
+      <c r="AW37" s="41" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2689,35 +2727,35 @@
       <c r="I38" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J38" s="64" t="s">
+      <c r="J38" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="65"/>
-      <c r="L38" s="66"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="65"/>
       <c r="M38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="64" t="s">
+      <c r="N38" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="O38" s="65"/>
-      <c r="P38" s="66"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="65"/>
       <c r="Q38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R38" s="72" t="s">
+      <c r="R38" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="S38" s="73"/>
-      <c r="T38" s="74"/>
+      <c r="S38" s="70"/>
+      <c r="T38" s="71"/>
       <c r="U38" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="V38" s="72" t="s">
+      <c r="V38" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="W38" s="73"/>
-      <c r="X38" s="74"/>
+      <c r="W38" s="70"/>
+      <c r="X38" s="71"/>
       <c r="Y38" t="s">
         <v>112</v>
       </c>
@@ -2757,27 +2795,27 @@
       <c r="AK38" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="AL38" s="64" t="s">
+      <c r="AL38" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="AM38" s="65"/>
-      <c r="AN38" s="66"/>
+      <c r="AM38" s="64"/>
+      <c r="AN38" s="65"/>
       <c r="AO38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AP38" s="64" t="s">
+      <c r="AP38" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="AQ38" s="65"/>
-      <c r="AR38" s="66"/>
+      <c r="AQ38" s="64"/>
+      <c r="AR38" s="65"/>
       <c r="AS38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AT38" s="64" t="s">
+      <c r="AT38" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="AU38" s="65"/>
-      <c r="AV38" s="66"/>
+      <c r="AU38" s="64"/>
+      <c r="AV38" s="65"/>
       <c r="AW38" s="9" t="s">
         <v>52</v>
       </c>
@@ -2793,7 +2831,7 @@
         <f>H7+1</f>
         <v>44839</v>
       </c>
-      <c r="K39" s="63">
+      <c r="K39" s="55">
         <f>L40-L39-3+1</f>
         <v>2</v>
       </c>
@@ -2807,7 +2845,7 @@
         <f>L39+1</f>
         <v>44848</v>
       </c>
-      <c r="O39" s="63">
+      <c r="O39" s="55">
         <f>P40-P39-3+1</f>
         <v>2</v>
       </c>
@@ -2821,7 +2859,7 @@
         <f>P39+1</f>
         <v>44855</v>
       </c>
-      <c r="S39" s="63">
+      <c r="S39" s="55">
         <f>T40-T39-3+1</f>
         <v>2</v>
       </c>
@@ -2835,7 +2873,7 @@
         <f>T39+1</f>
         <v>44862</v>
       </c>
-      <c r="W39" s="63">
+      <c r="W39" s="55">
         <f>X40-X39-3+1</f>
         <v>3</v>
       </c>
@@ -2849,7 +2887,7 @@
         <f>AJ45+1</f>
         <v>44904</v>
       </c>
-      <c r="AM39" s="63">
+      <c r="AM39" s="55">
         <f>AN40-AN39-3+1</f>
         <v>2</v>
       </c>
@@ -2860,20 +2898,20 @@
         <f>AN39+1</f>
         <v>44918</v>
       </c>
-      <c r="AQ39" s="63">
+      <c r="AQ39" s="55">
         <v>1</v>
       </c>
       <c r="AR39" s="7">
         <v>44931</v>
       </c>
       <c r="AS39" s="2"/>
-      <c r="AT39" s="62" t="s">
+      <c r="AT39" s="54" t="s">
         <v>109</v>
       </c>
       <c r="AU39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AV39" s="62" t="s">
+      <c r="AV39" s="54" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2937,7 +2975,7 @@
         <f>3</f>
         <v>3</v>
       </c>
-      <c r="X40" s="61">
+      <c r="X40" s="53">
         <v>44874</v>
       </c>
       <c r="AK40" s="11" t="s">
@@ -2966,13 +3004,13 @@
         <v>44935</v>
       </c>
       <c r="AS40" s="2"/>
-      <c r="AT40" s="61" t="s">
+      <c r="AT40" s="53" t="s">
         <v>109</v>
       </c>
       <c r="AU40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AV40" s="61" t="s">
+      <c r="AV40" s="53" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2995,10 +3033,10 @@
       <c r="AK41" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AT41" s="48" t="s">
+      <c r="AT41" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="AU41" s="47">
+      <c r="AU41" s="39">
         <v>44936</v>
       </c>
     </row>
@@ -3018,7 +3056,7 @@
       <c r="U42" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AK42" s="59" t="s">
+      <c r="AK42" s="51" t="s">
         <v>123</v>
       </c>
       <c r="AL42" s="17" t="s">
@@ -3068,7 +3106,7 @@
       <c r="AB43" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AC43" s="58" t="s">
+      <c r="AC43" s="50" t="s">
         <v>116</v>
       </c>
       <c r="AD43" s="1" t="s">
@@ -3103,11 +3141,11 @@
       <c r="I44" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J44" s="64" t="s">
+      <c r="J44" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="K44" s="65"/>
-      <c r="L44" s="66"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="65"/>
       <c r="M44" s="20" t="s">
         <v>67</v>
       </c>
@@ -3117,35 +3155,35 @@
       <c r="U44" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="V44" s="64" t="s">
+      <c r="V44" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="W44" s="65"/>
-      <c r="X44" s="66"/>
+      <c r="W44" s="64"/>
+      <c r="X44" s="65"/>
       <c r="Y44" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Z44" s="64" t="s">
+      <c r="Z44" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="AA44" s="65"/>
-      <c r="AB44" s="66"/>
-      <c r="AC44" s="15" t="s">
+      <c r="AA44" s="64"/>
+      <c r="AB44" s="65"/>
+      <c r="AC44" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="AD44" s="64" t="s">
+      <c r="AD44" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="AE44" s="65"/>
-      <c r="AF44" s="66"/>
+      <c r="AE44" s="85"/>
+      <c r="AF44" s="86"/>
       <c r="AG44" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AH44" s="64" t="s">
+      <c r="AH44" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="AI44" s="65"/>
-      <c r="AJ44" s="66"/>
+      <c r="AI44" s="64"/>
+      <c r="AJ44" s="65"/>
       <c r="AK44" s="15" t="s">
         <v>67</v>
       </c>
@@ -3164,7 +3202,7 @@
         <f>H7+1</f>
         <v>44839</v>
       </c>
-      <c r="K45" s="63">
+      <c r="K45" s="55">
         <f>L46-L45-3+1</f>
         <v>2</v>
       </c>
@@ -3179,7 +3217,7 @@
         <f>T39+1</f>
         <v>44862</v>
       </c>
-      <c r="W45" s="63">
+      <c r="W45" s="55">
         <f>X46-X45-5+1</f>
         <v>7</v>
       </c>
@@ -3190,7 +3228,7 @@
         <f>X45+1</f>
         <v>44869</v>
       </c>
-      <c r="AA45" s="63">
+      <c r="AA45" s="55">
         <f>AB46-AB45-5+1</f>
         <v>7</v>
       </c>
@@ -3204,7 +3242,7 @@
         <f>AB45+1</f>
         <v>44876</v>
       </c>
-      <c r="AE45" s="63">
+      <c r="AE45" s="55">
         <f>AF46-AF45-3+1</f>
         <v>2</v>
       </c>
@@ -3215,7 +3253,7 @@
         <f>AF45+1</f>
         <v>44897</v>
       </c>
-      <c r="AI45" s="63">
+      <c r="AI45" s="55">
         <f>AJ46-AJ45-3+1</f>
         <v>2</v>
       </c>
@@ -3378,11 +3416,11 @@
       <c r="I50" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="64" t="s">
+      <c r="J50" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="K50" s="65"/>
-      <c r="L50" s="66"/>
+      <c r="K50" s="64"/>
+      <c r="L50" s="65"/>
       <c r="M50" s="20" t="s">
         <v>80</v>
       </c>
@@ -3414,7 +3452,7 @@
         <f>H7+1</f>
         <v>44839</v>
       </c>
-      <c r="K51" s="63">
+      <c r="K51" s="55">
         <f>L52-L51-5+1</f>
         <v>7</v>
       </c>
@@ -3597,33 +3635,7 @@
       <c r="U61"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AD5:AP5"/>
-    <mergeCell ref="X6:Y8"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="AJ8:AL8"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="AT38:AV38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="Z11:AA12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="AH44:AJ44"/>
-    <mergeCell ref="AP38:AR38"/>
-    <mergeCell ref="AL38:AN38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="AD44:AF44"/>
+  <mergeCells count="41">
     <mergeCell ref="J50:L50"/>
     <mergeCell ref="V44:X44"/>
     <mergeCell ref="Z44:AB44"/>
@@ -3638,6 +3650,33 @@
     <mergeCell ref="J32:L32"/>
     <mergeCell ref="X13:Y14"/>
     <mergeCell ref="Z13:AA14"/>
+    <mergeCell ref="AH44:AJ44"/>
+    <mergeCell ref="AP38:AR38"/>
+    <mergeCell ref="AL38:AN38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="AD44:AF44"/>
+    <mergeCell ref="AT38:AV38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="Z11:AA12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AD5:AP5"/>
+    <mergeCell ref="X6:Y8"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="AJ8:AL8"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="J6:L6"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="3" scale="37" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3681,11 +3720,11 @@
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="65"/>
       <c r="H4" s="4" t="s">
         <v>29</v>
       </c>
